--- a/Organisation/Diagramme de Gantt.xlsx
+++ b/Organisation/Diagramme de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\conception industrielle\SpecRam\Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22475088-6C25-43A8-81F3-AC3E2A2841F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E55CD8-EB67-4B20-813C-16BEBF12684D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>durée</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Organisation</t>
   </si>
   <si>
-    <t>tableau de Grantt</t>
-  </si>
-  <si>
     <t>Conception</t>
   </si>
   <si>
@@ -124,13 +121,19 @@
   </si>
   <si>
     <t>10 min à la fin pour voir où on en est + objectifs</t>
+  </si>
+  <si>
+    <t>Séminaires</t>
+  </si>
+  <si>
+    <t>tableau de Gantt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,14 +143,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,10 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,86 +502,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +580,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,856 +914,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="11" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>44237</v>
       </c>
-      <c r="F2" s="24">
+      <c r="G2" s="23">
         <v>44251</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>44258</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>44265</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>44272</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>44279</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>44286</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>44307</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>44314</v>
       </c>
-      <c r="O2" s="46">
+      <c r="P2" s="36">
         <v>44321</v>
       </c>
-      <c r="P2" s="48">
+      <c r="Q2" s="38">
         <v>44328</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="53" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="31" t="s">
+    <row r="5" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="54"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="50"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="8"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="31" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="50"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="54"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="50"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="54"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="32" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="50"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="54"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="50"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="54"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="32" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="50"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="54"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="50"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="54"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="32" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="50"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="54"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="50"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="54"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="54"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="54"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="32" t="s">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="10"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="54"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="16" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="54"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="32" t="s">
+      <c r="O18" s="9"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="50"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="54"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="16" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="54"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="32" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="50"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="54"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="50"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="50"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="54"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="32" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="50"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="54"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="50"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="54"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="32" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="54"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="5" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="50"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="54"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="32" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="50"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="54"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="5" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="50"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="54"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="32" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="50"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="54"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="15" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="54"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="54"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q32" s="54"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="54"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="31" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="10"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="54"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="O34" s="10"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="31" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="50"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="54"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="50"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="54"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D38" s="35" t="s">
+      <c r="O37" s="9"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="50"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E38" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="54"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="20" t="s">
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="50"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C39" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="54"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="35" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="50"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="55"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="L4:L31"/>
-    <mergeCell ref="Q4:Q40"/>
-    <mergeCell ref="L33:L40"/>
+  <mergeCells count="6">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="M4:M31"/>
+    <mergeCell ref="R4:R40"/>
+    <mergeCell ref="M33:M40"/>
+    <mergeCell ref="I4:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
